--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -760,23 +760,7 @@
     <t xml:space="preserve">#eef0ff</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">fffded</t>
-    </r>
+    <t xml:space="preserve">#fffded</t>
   </si>
   <si>
     <t xml:space="preserve">currently mostly spoken in Israel</t>
@@ -807,7 +791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,11 +812,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -905,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
